--- a/test/dummy/app/views/xlsxs/todo_list.xlsx
+++ b/test/dummy/app/views/xlsxs/todo_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toshinobu/work/nissei-sales/app/views/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toshinobu/work/plugins/xlsx_renderer/test/dummy/app/views/xlsxs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB955C6-AB64-1145-B7D9-2DA42B132008}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBF1DF0-9CE9-F341-9279-440872E089ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{95F8208C-5BC8-D943-89BF-44CBA9E2E526}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>#{@report_title}</t>
     <phoneticPr fontId="1"/>
@@ -95,39 +95,37 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項目７</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">コウモク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#{@data[item1]}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#{@data[item2]}</t>
-  </si>
-  <si>
-    <t>#{@data[item3]}</t>
-  </si>
-  <si>
-    <t>#{@data[item4]}</t>
-  </si>
-  <si>
-    <t>#{@data[item5]}</t>
-  </si>
-  <si>
-    <t>#{@data[item6]}</t>
-  </si>
-  <si>
-    <t>#{@data[item7]}</t>
+    <t>#{@data.title}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#{@data.content}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#{@data.due_date}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#{@data.completed_at]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#{@data.created_at}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#{@data.updated_at}</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -176,7 +174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -185,6 +183,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,12 +504,15 @@
   <dimension ref="B1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -547,31 +551,25 @@
       <c r="G8" t="s">
         <v>8</v>
       </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -580,6 +578,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/test/dummy/app/views/xlsxs/todo_list.xlsx
+++ b/test/dummy/app/views/xlsxs/todo_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toshinobu/work/plugins/xlsx_renderer/test/dummy/app/views/xlsxs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBF1DF0-9CE9-F341-9279-440872E089ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8BEEC8-9A7D-E74E-8F80-E377914BAFEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{95F8208C-5BC8-D943-89BF-44CBA9E2E526}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>#{@report_title}</t>
     <phoneticPr fontId="1"/>
@@ -116,6 +116,14 @@
   </si>
   <si>
     <t>#{@data.updated_at}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>い</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -124,7 +132,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -152,15 +160,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -168,23 +182,154 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -501,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24713346-B283-6D4E-9674-AF785DE01E17}">
-  <dimension ref="B1:I9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -516,61 +661,183 @@
     <col min="10" max="10" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="27">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" ht="27">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:9">
-      <c r="H2" s="2" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="8"/>
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" t="s">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="8"/>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="8"/>
+      <c r="B10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/test/dummy/app/views/xlsxs/todo_list.xlsx
+++ b/test/dummy/app/views/xlsxs/todo_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toshinobu/work/plugins/xlsx_renderer/test/dummy/app/views/xlsxs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8BEEC8-9A7D-E74E-8F80-E377914BAFEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3DA3BD-3CCB-3B47-96B6-F054AAE96077}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{95F8208C-5BC8-D943-89BF-44CBA9E2E526}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$37</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,18 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>#{@report_title}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>発行日：#{@issue_date}</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">ハッコウビ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>明細</t>
     <rPh sb="0" eb="2">
@@ -53,77 +42,71 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項目１</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">コウモク </t>
+    <t>#{@report[:title]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発行日：#{@report[:issue_date]}</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ハッコウビ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項目２</t>
+    <t>#{@data[].title}</t>
+  </si>
+  <si>
+    <t>#{@data[].content}</t>
+  </si>
+  <si>
+    <t>#{@data[].due_date}</t>
+  </si>
+  <si>
+    <t>#{@data[].completed_at]}</t>
+  </si>
+  <si>
+    <t>#{@data[].created_at}</t>
+  </si>
+  <si>
+    <t>#{@data[].updated_at}</t>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
     <rPh sb="0" eb="2">
-      <t xml:space="preserve">コウモク </t>
+      <t xml:space="preserve">ナイヨウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項目３</t>
+    <t>期限</t>
     <rPh sb="0" eb="2">
-      <t xml:space="preserve">コウモク </t>
+      <t xml:space="preserve">キゲン </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項目４</t>
+    <t>完了</t>
     <rPh sb="0" eb="2">
-      <t xml:space="preserve">コウモク </t>
+      <t xml:space="preserve">カンリョウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項目５</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">コウモク </t>
+    <t>登録日時</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">トウロクニチジ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項目６</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">コウモク </t>
+    <t>更新日時</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">コウシンニチジ </t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#{@data.title}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#{@data.content}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#{@data.due_date}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#{@data.completed_at]}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#{@data.created_at}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#{@data.updated_at}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>い</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -314,23 +297,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24713346-B283-6D4E-9674-AF785DE01E17}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -658,50 +641,42 @@
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.85546875" customWidth="1"/>
+    <col min="5" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27">
+    <row r="1" spans="1:8" ht="27">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="F2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -709,11 +684,9 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -721,25 +694,21 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -747,75 +716,63 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="8"/>
       <c r="B8" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:10">
+        <v>14</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10">
+        <v>8</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="8"/>
-      <c r="B10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -823,28 +780,24 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="62" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="56" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>